--- a/7rmartsupermarket/src/test/resources/TestData.xlsx
+++ b/7rmartsupermarket/src/test/resources/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\eclipse-workspace\7rmartsupermarket\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\git\seleniumfinalproject\7rmartsupermarket\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D583672-F91C-4C3F-90FA-BAB5DDB2CF82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3287680-38D3-4FF8-945F-0DD982F487C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="3030" windowWidth="15375" windowHeight="7875" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2955" yWindow="2385" windowWidth="15375" windowHeight="7875" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="ManageSliderPage" sheetId="3" r:id="rId3"/>
     <sheet name="ManageLocationPage" sheetId="5" r:id="rId4"/>
     <sheet name="ManageOfferCodePage" sheetId="6" r:id="rId5"/>
+    <sheet name="MobileSliderPage" sheetId="7" r:id="rId6"/>
+    <sheet name="ManageExpensePage" sheetId="11" r:id="rId7"/>
+    <sheet name="CategoryPage" sheetId="12" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
   <si>
     <t>Username</t>
   </si>
@@ -55,24 +58,12 @@
     <t>Link</t>
   </si>
   <si>
-    <t>https://www.amazon.in</t>
-  </si>
-  <si>
-    <t>C:/Users/Dell/Downloads/Git.pdf</t>
-  </si>
-  <si>
     <t>UserType</t>
   </si>
   <si>
     <t>staff</t>
   </si>
   <si>
-    <t>searchName</t>
-  </si>
-  <si>
-    <t>Port Kirbyland</t>
-  </si>
-  <si>
     <t>OfferCode</t>
   </si>
   <si>
@@ -85,32 +76,124 @@
     <t>A456</t>
   </si>
   <si>
-    <t>www.google.in</t>
-  </si>
-  <si>
-    <t>John Samuel</t>
-  </si>
-  <si>
     <t>db</t>
   </si>
   <si>
-    <t>Rahmaan</t>
-  </si>
-  <si>
     <t>Sana</t>
   </si>
   <si>
     <t>Emil</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>Grocery</t>
+  </si>
+  <si>
+    <t>DeliveryCharge</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Armagh</t>
+  </si>
+  <si>
+    <t>Belfast</t>
+  </si>
+  <si>
+    <t>Bristol</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Admin(Admin)</t>
+  </si>
+  <si>
+    <t>Staff(Staff)</t>
+  </si>
+  <si>
+    <t>ExpenseType</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Debit Bank</t>
+  </si>
+  <si>
+    <t>Credit Bank</t>
+  </si>
+  <si>
+    <t>Debit Cash</t>
+  </si>
+  <si>
+    <t>Choclates</t>
+  </si>
+  <si>
+    <t>Sweets</t>
+  </si>
+  <si>
+    <t>03-04-2024</t>
+  </si>
+  <si>
+    <t>kaloor</t>
+  </si>
+  <si>
+    <t>kadavanthra</t>
+  </si>
+  <si>
+    <t>https://www.flipkart.in</t>
+  </si>
+  <si>
+    <t>C:/Users/Dell/Downloads/file.pdf</t>
+  </si>
+  <si>
+    <t>www.github.in</t>
+  </si>
+  <si>
+    <t>Naji99</t>
+  </si>
+  <si>
+    <t>Naji88</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -120,14 +203,13 @@
       <color rgb="FF1F1F1F"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF1F1F1F"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -149,12 +231,16 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -497,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80979334-73FE-4B05-A98D-DD0BF904333A}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,23 +601,23 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -539,26 +625,26 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -571,7 +657,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,23 +671,24 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
+      <c r="A2" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>18</v>
+      <c r="A4" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" xr:uid="{80D929EA-07BE-4CB6-BEFF-DE7E4FAF255C}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{AFB092E5-D2D9-4FA5-8D88-43A9A30AD868}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -609,25 +696,64 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CBA1E5A-35C7-43D0-A2A2-BF7AD2763254}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4">
+        <v>767</v>
       </c>
     </row>
   </sheetData>
@@ -650,22 +776,165 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D770FB3-1D10-486D-9EC7-FB17F29AB5A1}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0845EAD9-8EDB-41A8-BEA5-C7794B3F8463}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="3">
+        <v>45387</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4">
+        <v>456</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B10F57-D144-44A4-BF4A-D3380356EE19}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
